--- a/CriticaColaborativa.xlsx
+++ b/CriticaColaborativa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="18020" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="8120" yWindow="460" windowWidth="17480" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Enviar consejos de Cuidado</t>
   </si>
   <si>
-    <t>Editar Historia Clinica</t>
-  </si>
-  <si>
     <t>Qué tan fácil será consultar el historial cardiaco de un paciente.</t>
   </si>
   <si>
@@ -62,15 +59,6 @@
     <t>Después de la actual acción, los medicos entenderán qué pasos realizaron para enviar consejos de cuidado.</t>
   </si>
   <si>
-    <t>Qué tan fácil será para los medicos editar la historia clinica de un paciente.</t>
-  </si>
-  <si>
-    <t>Qué tanto deben explorar los medicos para editar la historia clinica de un paciente.</t>
-  </si>
-  <si>
-    <t>Después de la actual acción, los medicos entenderán qué pasos realizaron para editar la historia clinica de un paciente.</t>
-  </si>
-  <si>
     <t>usuario 1</t>
   </si>
   <si>
@@ -90,6 +78,18 @@
   </si>
   <si>
     <t>Totales por Pregunta</t>
+  </si>
+  <si>
+    <t>Consultar Historia Clinica</t>
+  </si>
+  <si>
+    <t>Qué tan fácil será para los medicos consultar la historia clinica de un paciente.</t>
+  </si>
+  <si>
+    <t>Qué tanto deben explorar los medicos para consultar la historia clinica de un paciente.</t>
+  </si>
+  <si>
+    <t>Después de la actual acción, los medicos entenderán qué pasos realizaron para consultar la historia clinica de un paciente.</t>
   </si>
 </sst>
 </file>
@@ -225,9 +225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -248,6 +245,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,319 +543,319 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14">
+        <f>AVERAGE(C6:G6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14">
+        <f>AVERAGE(C7:G7)</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" ref="H8:H18" si="0">AVERAGE(C8:G8)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>4</v>
-      </c>
-      <c r="H6" s="15">
-        <f>AVERAGE(C6:G6)</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4</v>
-      </c>
-      <c r="F7" s="8">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <f>AVERAGE(C7:G7)</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12">
-        <v>4</v>
-      </c>
-      <c r="H8" s="15">
-        <f t="shared" ref="H7:H18" si="0">AVERAGE(C8:G8)</f>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4</v>
-      </c>
-      <c r="G13" s="12">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8">
-        <v>4</v>
-      </c>
-      <c r="G16" s="9">
-        <v>4</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4</v>
-      </c>
-      <c r="F17" s="8">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>4</v>
-      </c>
-      <c r="H17" s="15">
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11">
-        <v>3</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4</v>
-      </c>
-      <c r="G18" s="12">
-        <v>5</v>
-      </c>
-      <c r="H18" s="15">
+    <row r="17" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
+    <row r="18" spans="2:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14">
         <f>AVERAGE(C6:C8,C11:C13,C16:C18)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
         <f t="shared" ref="D19:G19" si="1">AVERAGE(D6:D8,D11:D13,D16:D18)</f>
-        <v>4.1111111111111107</v>
-      </c>
-      <c r="E19" s="15">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E19" s="14">
         <f t="shared" si="1"/>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="F19" s="15">
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="G19" s="15">
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="G19" s="14">
         <f t="shared" si="1"/>
-        <v>3.8888888888888888</v>
+        <v>3.1111111111111112</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
+      <c r="B20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
